--- a/aiurt-module-system/src/main/resources/templates/emergencyTrainingProgram.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyTrainingProgram.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25785" windowHeight="11145"/>
+    <workbookView windowWidth="25545" windowHeight="8565"/>
   </bookViews>
   <sheets>
-    <sheet name="导入模板" sheetId="2" r:id="rId1"/>
+    <sheet name="应急队伍训练计划导入模板" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C11" sqref="C15 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
